--- a/model/results/mix4_ggpos_h2pos/v_sce.xlsx
+++ b/model/results/mix4_ggpos_h2pos/v_sce.xlsx
@@ -781,16 +781,16 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1.583461538461537</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="C3" t="n">
-        <v>1.583461538461537</v>
+        <v>1.5215</v>
       </c>
       <c r="D3" t="n">
-        <v>1.583461538461535</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5215</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="F3" t="n">
         <v>1.583461538461538</v>
@@ -912,16 +912,16 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>1.583461538461537</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="C4" t="n">
-        <v>1.583461538461537</v>
+        <v>1.5215</v>
       </c>
       <c r="D4" t="n">
-        <v>1.583461538461535</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5215</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="F4" t="n">
         <v>1.583461538461538</v>
@@ -1043,16 +1043,16 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>1.583461538461537</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="C5" t="n">
-        <v>1.583461538461537</v>
+        <v>1.5215</v>
       </c>
       <c r="D5" t="n">
-        <v>1.583461538461535</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5215</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="F5" t="n">
         <v>1.583461538461538</v>
@@ -1142,13 +1142,13 @@
         <v>0.494</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.494</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.4940000000000011</v>
+        <v>0.494</v>
       </c>
       <c r="AL5" t="n">
         <v>0.494</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>0.867461538461533</v>
+        <v>0.8674615384615382</v>
       </c>
       <c r="C6" t="n">
-        <v>1.171320006520033</v>
+        <v>1.5215</v>
       </c>
       <c r="D6" t="n">
-        <v>1.583461538461535</v>
+        <v>1.022266774580888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4474999999999994</v>
+        <v>0.8674615384615378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8674615384615332</v>
+        <v>0.8674615384615374</v>
       </c>
       <c r="G6" t="n">
         <v>0.16</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.8674615384615382</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8674615384615327</v>
+        <v>1.5215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8674615384615321</v>
+        <v>0.9351708971123137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4474999999999994</v>
+        <v>0.1514615384615376</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1514615384615331</v>
+        <v>0.1514615384615372</v>
       </c>
       <c r="G7" t="n">
         <v>0.16</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8674615384615327</v>
+        <v>0.8055</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1514615384615319</v>
+        <v>0.867461538461538</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4474999999999994</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1514615384615331</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="G8" t="n">
         <v>0.16</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8674615384615327</v>
+        <v>0.8054999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1514615384615319</v>
+        <v>0.1514615384615379</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4474999999999994</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1514615384615331</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="G9" t="n">
         <v>0.16</v>
@@ -1591,31 +1591,31 @@
         <v>0.16</v>
       </c>
       <c r="J9" t="n">
+        <v>0.02459999999999665</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.02460000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.02459999999999926</v>
       </c>
       <c r="L9" t="n">
         <v>0.02460000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02460000000000001</v>
+        <v>0.02459999999999665</v>
       </c>
       <c r="N9" t="n">
         <v>0.02460000000000001</v>
       </c>
       <c r="O9" t="n">
+        <v>0.02460000000000093</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.02460000000000001</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.02459999999999801</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.02459999999999801</v>
+        <v>0.02460000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02460000000000001</v>
+        <v>0.02459999999999665</v>
       </c>
       <c r="S9" t="n">
         <v>0.02460000000000001</v>
@@ -1627,10 +1627,10 @@
         <v>0.02460000000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02460000000000001</v>
+        <v>0.02459999999999665</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02460000000000001</v>
+        <v>0.02459999999999665</v>
       </c>
       <c r="X9" t="n">
         <v>0.02460000000000001</v>
@@ -1639,7 +1639,7 @@
         <v>0.02460000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02460000000000001</v>
+        <v>0.02459999999999665</v>
       </c>
       <c r="AA9" t="n">
         <v>0.02460000000000001</v>
@@ -1648,7 +1648,7 @@
         <v>0.02460000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.02459999999999846</v>
+        <v>0.02460000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>0.02460000000000001</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.8055</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4474999999999994</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1514615384615331</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="G10" t="n">
         <v>0.16</v>
@@ -1722,31 +1722,31 @@
         <v>0.16</v>
       </c>
       <c r="J10" t="n">
+        <v>0.01639999999999667</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.01640000000000003</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.01639999999999928</v>
       </c>
       <c r="L10" t="n">
         <v>0.01640000000000003</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01640000000000003</v>
+        <v>0.01639999999999667</v>
       </c>
       <c r="N10" t="n">
         <v>0.01640000000000003</v>
       </c>
       <c r="O10" t="n">
+        <v>0.01640000000000094</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.01640000000000003</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.01639999999999803</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0.01639999999999803</v>
+        <v>0.01640000000000003</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01640000000000003</v>
+        <v>0.01639999999999667</v>
       </c>
       <c r="S10" t="n">
         <v>0.01640000000000003</v>
@@ -1758,10 +1758,10 @@
         <v>0.01640000000000003</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01640000000000003</v>
+        <v>0.01639999999999667</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01640000000000003</v>
+        <v>0.01639999999999667</v>
       </c>
       <c r="X10" t="n">
         <v>0.01640000000000003</v>
@@ -1770,7 +1770,7 @@
         <v>0.01640000000000003</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01640000000000003</v>
+        <v>0.01639999999999667</v>
       </c>
       <c r="AA10" t="n">
         <v>0.01640000000000003</v>
@@ -1779,7 +1779,7 @@
         <v>0.01640000000000003</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01639999999999847</v>
+        <v>0.01640000000000003</v>
       </c>
       <c r="AD10" t="n">
         <v>0.01640000000000003</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514615384615326</v>
+        <v>0.151461538461545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4474999999999994</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="G11" t="n">
         <v>0.16</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.151461538461545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615352</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615352</v>
       </c>
       <c r="G12" t="n">
         <v>0.16</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1514615384615324</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.151461538461545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615352</v>
       </c>
       <c r="G13" t="n">
         <v>0.16</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1514615384615326</v>
+        <v>0.1514615384615288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615352</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615352</v>
       </c>
       <c r="G14" t="n">
         <v>0.16</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1514615384615324</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615448</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1514615384615314</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="G15" t="n">
         <v>0.16</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1514615384615323</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1514615384615342</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615379</v>
       </c>
       <c r="G16" t="n">
         <v>0.16</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1514615384615323</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1514615384616305</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="G17" t="n">
         <v>0.16</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1514615384615319</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1514615384615379</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="G18" t="n">
         <v>0.16</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.151461538461533</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1514615384615333</v>
+        <v>0.1514615384614857</v>
       </c>
       <c r="G19" t="n">
         <v>0.16</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D20" t="n">
-        <v>0.151461538461531</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="G20" t="n">
         <v>0.16</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1514615384615321</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1514615384615328</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1514615384615084</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615379</v>
       </c>
       <c r="G21" t="n">
         <v>0.16</v>
